--- a/biology/Zoologie/Japalura_polygonata/Japalura_polygonata.xlsx
+++ b/biology/Zoologie/Japalura_polygonata/Japalura_polygonata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Japalura polygonata est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japalura polygonata est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à Taïwan et dans l'archipel Nansei au Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à Taïwan et dans l'archipel Nansei au Japon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 mai 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 mai 2012) :
 Japalura polygonata donan Ota, 2003 de Yonaguni-jima
 Japalura polygonata ishigakiensis Van Denburgh, 1912 de Ishigaki-jima
 Japalura polygonata miyakensis Van Denburgh, 1912 de Miyako-jima
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).
 Van Denburgh, 1912 : Concerning certain species of reptiles and amphibians from China, Japan, the Loo Choo Islands, and Formosa. Proceedings of the California Academy of Sciences, sér. 4, vol. 3, no 10, p. 187-258 (texte intégral).
